--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2052,28 +2052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>540.1055297953333</v>
+        <v>623.2507217228366</v>
       </c>
       <c r="AB2" t="n">
-        <v>738.9962136402705</v>
+        <v>852.7591333424663</v>
       </c>
       <c r="AC2" t="n">
-        <v>668.4674521981423</v>
+        <v>771.3729985112213</v>
       </c>
       <c r="AD2" t="n">
-        <v>540105.5297953333</v>
+        <v>623250.7217228366</v>
       </c>
       <c r="AE2" t="n">
-        <v>738996.2136402705</v>
+        <v>852759.1333424663</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.45297388569112e-06</v>
+        <v>2.45632444480532e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.94675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>668467.4521981423</v>
+        <v>771372.9985112214</v>
       </c>
     </row>
     <row r="3">
@@ -2158,28 +2158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>334.3071785600261</v>
+        <v>386.2943482369097</v>
       </c>
       <c r="AB3" t="n">
-        <v>457.4138302976434</v>
+        <v>528.5449693616137</v>
       </c>
       <c r="AC3" t="n">
-        <v>413.7588963183784</v>
+        <v>478.1013793032641</v>
       </c>
       <c r="AD3" t="n">
-        <v>334307.1785600261</v>
+        <v>386294.3482369097</v>
       </c>
       <c r="AE3" t="n">
-        <v>457413.8302976434</v>
+        <v>528544.9693616136</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.023533717041815e-06</v>
+        <v>3.420884148714992e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.01157407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>413758.8963183785</v>
+        <v>478101.3793032641</v>
       </c>
     </row>
     <row r="4">
@@ -2264,28 +2264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>278.3834054847882</v>
+        <v>320.0414318116625</v>
       </c>
       <c r="AB4" t="n">
-        <v>380.8964567933599</v>
+        <v>437.8948062362039</v>
       </c>
       <c r="AC4" t="n">
-        <v>344.5442335485355</v>
+        <v>396.1027405182404</v>
       </c>
       <c r="AD4" t="n">
-        <v>278383.4054847882</v>
+        <v>320041.4318116625</v>
       </c>
       <c r="AE4" t="n">
-        <v>380896.4567933599</v>
+        <v>437894.8062362039</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.249677921183577e-06</v>
+        <v>3.803192146232945e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.00462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>344544.2335485355</v>
+        <v>396102.7405182404</v>
       </c>
     </row>
     <row r="5">
@@ -2370,28 +2370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>248.9959938209515</v>
+        <v>300.9830739892872</v>
       </c>
       <c r="AB5" t="n">
-        <v>340.6873036736362</v>
+        <v>411.8183202682231</v>
       </c>
       <c r="AC5" t="n">
-        <v>308.1725855687597</v>
+        <v>372.5149577724658</v>
       </c>
       <c r="AD5" t="n">
-        <v>248995.9938209515</v>
+        <v>300983.0739892871</v>
       </c>
       <c r="AE5" t="n">
-        <v>340687.3036736362</v>
+        <v>411818.3202682231</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.339431856361995e-06</v>
+        <v>3.954925626901358e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.661265432098766</v>
       </c>
       <c r="AH5" t="n">
-        <v>308172.5855687597</v>
+        <v>372514.9577724658</v>
       </c>
     </row>
     <row r="6">
@@ -2476,28 +2476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>249.7235701275303</v>
+        <v>301.7106502958659</v>
       </c>
       <c r="AB6" t="n">
-        <v>341.6828056746981</v>
+        <v>412.8138222692854</v>
       </c>
       <c r="AC6" t="n">
-        <v>309.0730782560364</v>
+        <v>373.4154504597425</v>
       </c>
       <c r="AD6" t="n">
-        <v>249723.5701275303</v>
+        <v>301710.650295866</v>
       </c>
       <c r="AE6" t="n">
-        <v>341682.8056746981</v>
+        <v>412813.8222692854</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.339431856361995e-06</v>
+        <v>3.954925626901358e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.661265432098766</v>
       </c>
       <c r="AH6" t="n">
-        <v>309073.0782560364</v>
+        <v>373415.4504597426</v>
       </c>
     </row>
   </sheetData>
@@ -2773,28 +2773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>415.5533845489357</v>
+        <v>476.0115402660759</v>
       </c>
       <c r="AB2" t="n">
-        <v>568.5784736613083</v>
+        <v>651.2999895390864</v>
       </c>
       <c r="AC2" t="n">
-        <v>514.3141421399721</v>
+        <v>589.1408326427518</v>
       </c>
       <c r="AD2" t="n">
-        <v>415553.3845489357</v>
+        <v>476011.5402660759</v>
       </c>
       <c r="AE2" t="n">
-        <v>568578.4736613083</v>
+        <v>651299.9895390864</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.722029217618638e-06</v>
+        <v>2.982194713695106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.17206790123457</v>
       </c>
       <c r="AH2" t="n">
-        <v>514314.1421399721</v>
+        <v>589140.8326427517</v>
       </c>
     </row>
     <row r="3">
@@ -2879,28 +2879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>269.5058380054154</v>
+        <v>319.7880850241239</v>
       </c>
       <c r="AB3" t="n">
-        <v>368.7497773174462</v>
+        <v>437.548165984622</v>
       </c>
       <c r="AC3" t="n">
-        <v>333.5568161138312</v>
+        <v>395.7891831257568</v>
       </c>
       <c r="AD3" t="n">
-        <v>269505.8380054154</v>
+        <v>319788.0850241239</v>
       </c>
       <c r="AE3" t="n">
-        <v>368749.7773174462</v>
+        <v>437548.165984622</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.25782717774468e-06</v>
+        <v>3.910084802869171e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.282407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>333556.8161138312</v>
+        <v>395789.1831257568</v>
       </c>
     </row>
     <row r="4">
@@ -2985,28 +2985,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>233.3424892439792</v>
+        <v>283.7099876087111</v>
       </c>
       <c r="AB4" t="n">
-        <v>319.2694881275505</v>
+        <v>388.1845214475297</v>
       </c>
       <c r="AC4" t="n">
-        <v>288.7988562782927</v>
+        <v>351.1367355409743</v>
       </c>
       <c r="AD4" t="n">
-        <v>233342.4892439792</v>
+        <v>283709.9876087111</v>
       </c>
       <c r="AE4" t="n">
-        <v>319269.4881275505</v>
+        <v>388184.5214475297</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.399681616386851e-06</v>
+        <v>4.155747044081246e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.734567901234568</v>
       </c>
       <c r="AH4" t="n">
-        <v>288798.8562782927</v>
+        <v>351136.7355409743</v>
       </c>
     </row>
   </sheetData>
@@ -3282,28 +3282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.5100077944114</v>
+        <v>251.9162436573954</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.5561032427346</v>
+        <v>344.682918332187</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.5893453193127</v>
+        <v>311.78686437218</v>
       </c>
       <c r="AD2" t="n">
-        <v>206510.0077944114</v>
+        <v>251916.2436573954</v>
       </c>
       <c r="AE2" t="n">
-        <v>282556.1032427346</v>
+        <v>344682.918332187</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.496369150045556e-06</v>
+        <v>4.723667624863473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.367283950617285</v>
       </c>
       <c r="AH2" t="n">
-        <v>255589.3453193127</v>
+        <v>311786.8643721801</v>
       </c>
     </row>
   </sheetData>
@@ -3579,28 +3579,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>251.480368657461</v>
+        <v>308.2894716221556</v>
       </c>
       <c r="AB2" t="n">
-        <v>344.0865349278292</v>
+        <v>421.815255845028</v>
       </c>
       <c r="AC2" t="n">
-        <v>311.2473989629046</v>
+        <v>381.5577998486076</v>
       </c>
       <c r="AD2" t="n">
-        <v>251480.368657461</v>
+        <v>308289.4716221556</v>
       </c>
       <c r="AE2" t="n">
-        <v>344086.5349278292</v>
+        <v>421815.255845028</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.256022170631814e-06</v>
+        <v>4.109982443772417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.918981481481483</v>
       </c>
       <c r="AH2" t="n">
-        <v>311247.3989629046</v>
+        <v>381557.7998486076</v>
       </c>
     </row>
     <row r="3">
@@ -3685,28 +3685,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.9559347249048</v>
+        <v>256.3537477651948</v>
       </c>
       <c r="AB3" t="n">
-        <v>285.9027283757145</v>
+        <v>350.7545072213397</v>
       </c>
       <c r="AC3" t="n">
-        <v>258.6165732466199</v>
+        <v>317.2789893392826</v>
       </c>
       <c r="AD3" t="n">
-        <v>208955.9347249048</v>
+        <v>256353.7477651948</v>
       </c>
       <c r="AE3" t="n">
-        <v>285902.7283757145</v>
+        <v>350754.5072213397</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.493055580523386e-06</v>
+        <v>4.541805838916196e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.973765432098766</v>
       </c>
       <c r="AH3" t="n">
-        <v>258616.5732466199</v>
+        <v>317278.9893392826</v>
       </c>
     </row>
   </sheetData>
@@ -3982,28 +3982,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.5743914872895</v>
+        <v>252.2196095805495</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.0664870335386</v>
+        <v>345.0979969718061</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.0054047623593</v>
+        <v>312.1623284890007</v>
       </c>
       <c r="AD2" t="n">
-        <v>199574.3914872895</v>
+        <v>252219.6095805495</v>
       </c>
       <c r="AE2" t="n">
-        <v>273066.4870335386</v>
+        <v>345097.9969718061</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.452470866140346e-06</v>
+        <v>4.806052710375061e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.903549382716051</v>
       </c>
       <c r="AH2" t="n">
-        <v>247005.4047623593</v>
+        <v>312162.3284890007</v>
       </c>
     </row>
   </sheetData>
@@ -4279,28 +4279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>441.6331175890766</v>
+        <v>512.7777221646177</v>
       </c>
       <c r="AB2" t="n">
-        <v>604.2619149634487</v>
+        <v>701.6051016221409</v>
       </c>
       <c r="AC2" t="n">
-        <v>546.5920058862605</v>
+        <v>634.6448954322677</v>
       </c>
       <c r="AD2" t="n">
-        <v>441633.1175890766</v>
+        <v>512777.7221646176</v>
       </c>
       <c r="AE2" t="n">
-        <v>604261.9149634487</v>
+        <v>701605.1016221408</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.650403662659956e-06</v>
+        <v>2.839488486047902e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.58487654320988</v>
       </c>
       <c r="AH2" t="n">
-        <v>546592.0058862605</v>
+        <v>634644.8954322677</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>282.7337109267961</v>
+        <v>333.4416511762844</v>
       </c>
       <c r="AB3" t="n">
-        <v>386.8487366210461</v>
+        <v>456.2295775468347</v>
       </c>
       <c r="AC3" t="n">
-        <v>349.9284361435445</v>
+        <v>412.6876669879977</v>
       </c>
       <c r="AD3" t="n">
-        <v>282733.7109267961</v>
+        <v>333441.6511762844</v>
       </c>
       <c r="AE3" t="n">
-        <v>386848.7366210461</v>
+        <v>456229.5775468347</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.194956647494811e-06</v>
+        <v>3.77638166282957e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.463734567901234</v>
       </c>
       <c r="AH3" t="n">
-        <v>349928.4361435445</v>
+        <v>412687.6669879977</v>
       </c>
     </row>
     <row r="4">
@@ -4491,28 +4491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>237.1534674592827</v>
+        <v>287.9466590547944</v>
       </c>
       <c r="AB4" t="n">
-        <v>324.483836650219</v>
+        <v>393.9813222288137</v>
       </c>
       <c r="AC4" t="n">
-        <v>293.5155546963435</v>
+        <v>356.3802977915535</v>
       </c>
       <c r="AD4" t="n">
-        <v>237153.4674592827</v>
+        <v>287946.6590547944</v>
       </c>
       <c r="AE4" t="n">
-        <v>324483.836650219</v>
+        <v>393981.3222288137</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.386147832896093e-06</v>
+        <v>4.105322504311843e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.703703703703702</v>
       </c>
       <c r="AH4" t="n">
-        <v>293515.5546963435</v>
+        <v>356380.2977915535</v>
       </c>
     </row>
     <row r="5">
@@ -4597,28 +4597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>237.8920834052754</v>
+        <v>288.6852750007871</v>
       </c>
       <c r="AB5" t="n">
-        <v>325.4944435729615</v>
+        <v>394.9919291515567</v>
       </c>
       <c r="AC5" t="n">
-        <v>294.4297107127755</v>
+        <v>357.2944538079857</v>
       </c>
       <c r="AD5" t="n">
-        <v>237892.0834052754</v>
+        <v>288685.2750007871</v>
       </c>
       <c r="AE5" t="n">
-        <v>325494.4435729616</v>
+        <v>394991.9291515567</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.385394051821574e-06</v>
+        <v>4.104025638138722e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.707561728395062</v>
       </c>
       <c r="AH5" t="n">
-        <v>294429.7107127755</v>
+        <v>357294.4538079858</v>
       </c>
     </row>
   </sheetData>
@@ -4894,28 +4894,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.1160090910891</v>
+        <v>248.1181351596743</v>
       </c>
       <c r="AB2" t="n">
-        <v>280.6487727179677</v>
+        <v>339.4861787248866</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.8640477428737</v>
+        <v>307.086094299329</v>
       </c>
       <c r="AD2" t="n">
-        <v>205116.0090910891</v>
+        <v>248118.1351596743</v>
       </c>
       <c r="AE2" t="n">
-        <v>280648.7727179677</v>
+        <v>339486.1787248866</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.395828262625722e-06</v>
+        <v>4.802821987238892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.37422839506173</v>
       </c>
       <c r="AH2" t="n">
-        <v>253864.0477428737</v>
+        <v>307086.094299329</v>
       </c>
     </row>
   </sheetData>
@@ -5191,28 +5191,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>323.7889448301688</v>
+        <v>382.5891144414868</v>
       </c>
       <c r="AB2" t="n">
-        <v>443.0223188767301</v>
+        <v>523.4753050193377</v>
       </c>
       <c r="AC2" t="n">
-        <v>400.7408905488639</v>
+        <v>473.5155566104964</v>
       </c>
       <c r="AD2" t="n">
-        <v>323788.9448301687</v>
+        <v>382589.1144414868</v>
       </c>
       <c r="AE2" t="n">
-        <v>443022.3188767302</v>
+        <v>523475.3050193377</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.966390221815583e-06</v>
+        <v>3.482623199196718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.9837962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>400740.890548864</v>
+        <v>473515.5566104964</v>
       </c>
     </row>
     <row r="3">
@@ -5297,28 +5297,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.2656266217663</v>
+        <v>270.2515444887721</v>
       </c>
       <c r="AB3" t="n">
-        <v>302.7453918942708</v>
+        <v>369.770085826223</v>
       </c>
       <c r="AC3" t="n">
-        <v>273.8517965977973</v>
+        <v>334.4797478105424</v>
       </c>
       <c r="AD3" t="n">
-        <v>221265.6266217663</v>
+        <v>270251.5444887721</v>
       </c>
       <c r="AE3" t="n">
-        <v>302745.3918942708</v>
+        <v>369770.085826223</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.448681723172384e-06</v>
+        <v>4.336797285685914e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.819444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>273851.7965977973</v>
+        <v>334479.7478105425</v>
       </c>
     </row>
     <row r="4">
@@ -5403,28 +5403,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.647711628044</v>
+        <v>270.6336294950498</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.2681774562606</v>
+        <v>370.2928713882131</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.324688239485</v>
+        <v>334.9526394522303</v>
       </c>
       <c r="AD4" t="n">
-        <v>221647.711628044</v>
+        <v>270633.6294950498</v>
       </c>
       <c r="AE4" t="n">
-        <v>303268.1774562606</v>
+        <v>370292.8713882131</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.451872370291388e-06</v>
+        <v>4.342448158820765e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.80787037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>274324.688239485</v>
+        <v>334952.6394522303</v>
       </c>
     </row>
   </sheetData>
@@ -5700,28 +5700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>380.4489044946652</v>
+        <v>440.4620546576191</v>
       </c>
       <c r="AB2" t="n">
-        <v>520.5469753506974</v>
+        <v>602.6596149969783</v>
       </c>
       <c r="AC2" t="n">
-        <v>470.8667026154945</v>
+        <v>545.1426271797479</v>
       </c>
       <c r="AD2" t="n">
-        <v>380448.9044946652</v>
+        <v>440462.0546576191</v>
       </c>
       <c r="AE2" t="n">
-        <v>520546.9753506974</v>
+        <v>602659.6149969783</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.798606207294551e-06</v>
+        <v>3.136612172658723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.76311728395062</v>
       </c>
       <c r="AH2" t="n">
-        <v>470866.7026154945</v>
+        <v>545142.6271797479</v>
       </c>
     </row>
     <row r="3">
@@ -5806,28 +5806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>255.4582224253672</v>
+        <v>295.467078709224</v>
       </c>
       <c r="AB3" t="n">
-        <v>349.5292099435985</v>
+        <v>404.2710921775038</v>
       </c>
       <c r="AC3" t="n">
-        <v>316.170632714013</v>
+        <v>365.6880265381235</v>
       </c>
       <c r="AD3" t="n">
-        <v>255458.2224253672</v>
+        <v>295467.078709224</v>
       </c>
       <c r="AE3" t="n">
-        <v>349529.2099435985</v>
+        <v>404271.0921775037</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.325178696049658e-06</v>
+        <v>4.054908613156874e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.101080246913581</v>
       </c>
       <c r="AH3" t="n">
-        <v>316170.632714013</v>
+        <v>365688.0265381235</v>
       </c>
     </row>
     <row r="4">
@@ -5912,28 +5912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>229.5831951398162</v>
+        <v>279.5088127543756</v>
       </c>
       <c r="AB4" t="n">
-        <v>314.1258560858864</v>
+        <v>382.4362886690741</v>
       </c>
       <c r="AC4" t="n">
-        <v>284.1461252595504</v>
+        <v>345.9371060311991</v>
       </c>
       <c r="AD4" t="n">
-        <v>229583.1951398161</v>
+        <v>279508.8127543756</v>
       </c>
       <c r="AE4" t="n">
-        <v>314125.8560858864</v>
+        <v>382436.2886690741</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.416057835083844e-06</v>
+        <v>4.213393896138381e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.757716049382715</v>
       </c>
       <c r="AH4" t="n">
-        <v>284146.1252595504</v>
+        <v>345937.1060311991</v>
       </c>
     </row>
   </sheetData>
@@ -6209,28 +6209,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>509.6813390865555</v>
+        <v>581.8727241529089</v>
       </c>
       <c r="AB2" t="n">
-        <v>697.3684936919559</v>
+        <v>796.1439315988735</v>
       </c>
       <c r="AC2" t="n">
-        <v>630.8126234168229</v>
+        <v>720.1610721621022</v>
       </c>
       <c r="AD2" t="n">
-        <v>509681.3390865555</v>
+        <v>581872.7241529089</v>
       </c>
       <c r="AE2" t="n">
-        <v>697368.4936919559</v>
+        <v>796143.9315988735</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.514086254070611e-06</v>
+        <v>2.573846283765982e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.48765432098766</v>
       </c>
       <c r="AH2" t="n">
-        <v>630812.623416823</v>
+        <v>720161.0721621022</v>
       </c>
     </row>
     <row r="3">
@@ -6315,28 +6315,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>310.224923716297</v>
+        <v>361.9120503355437</v>
       </c>
       <c r="AB3" t="n">
-        <v>424.4634267863523</v>
+        <v>495.1840337018986</v>
       </c>
       <c r="AC3" t="n">
-        <v>383.9532330720232</v>
+        <v>447.9243645205448</v>
       </c>
       <c r="AD3" t="n">
-        <v>310224.923716297</v>
+        <v>361912.0503355437</v>
       </c>
       <c r="AE3" t="n">
-        <v>424463.4267863523</v>
+        <v>495184.0337018985</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.076978430551601e-06</v>
+        <v>3.530725677328574e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.834104938271604</v>
       </c>
       <c r="AH3" t="n">
-        <v>383953.2330720232</v>
+        <v>447924.3645205448</v>
       </c>
     </row>
     <row r="4">
@@ -6421,28 +6421,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>256.422832999088</v>
+        <v>308.0246187637663</v>
       </c>
       <c r="AB4" t="n">
-        <v>350.8490326861777</v>
+        <v>421.4528724796964</v>
       </c>
       <c r="AC4" t="n">
-        <v>317.3644934264237</v>
+        <v>381.230001843055</v>
       </c>
       <c r="AD4" t="n">
-        <v>256422.832999088</v>
+        <v>308024.6187637664</v>
       </c>
       <c r="AE4" t="n">
-        <v>350849.0326861778</v>
+        <v>421452.8724796964</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.299160172740138e-06</v>
+        <v>3.908419913647787e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.885030864197532</v>
       </c>
       <c r="AH4" t="n">
-        <v>317364.4934264238</v>
+        <v>381230.001843055</v>
       </c>
     </row>
     <row r="5">
@@ -6527,28 +6527,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>245.4273463366057</v>
+        <v>297.029132101284</v>
       </c>
       <c r="AB5" t="n">
-        <v>335.8045227479412</v>
+        <v>406.408362541452</v>
       </c>
       <c r="AC5" t="n">
-        <v>303.7558104015854</v>
+        <v>367.6213188182144</v>
       </c>
       <c r="AD5" t="n">
-        <v>245427.3463366057</v>
+        <v>297029.132101284</v>
       </c>
       <c r="AE5" t="n">
-        <v>335804.5227479412</v>
+        <v>406408.3625414521</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.353951238540743e-06</v>
+        <v>4.001561094155384e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.676697530864196</v>
       </c>
       <c r="AH5" t="n">
-        <v>303755.8104015854</v>
+        <v>367621.3188182144</v>
       </c>
     </row>
   </sheetData>
@@ -6824,28 +6824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>281.3129948768715</v>
+        <v>329.2684753366208</v>
       </c>
       <c r="AB2" t="n">
-        <v>384.9048502439706</v>
+        <v>450.5196542554826</v>
       </c>
       <c r="AC2" t="n">
-        <v>348.1700715540355</v>
+        <v>407.5226907616447</v>
       </c>
       <c r="AD2" t="n">
-        <v>281312.9948768715</v>
+        <v>329268.4753366208</v>
       </c>
       <c r="AE2" t="n">
-        <v>384904.8502439706</v>
+        <v>450519.6542554827</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.153392032777583e-06</v>
+        <v>3.883075413664728e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.26234567901235</v>
       </c>
       <c r="AH2" t="n">
-        <v>348170.0715540355</v>
+        <v>407522.6907616447</v>
       </c>
     </row>
     <row r="3">
@@ -6930,28 +6930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.851016753756</v>
+        <v>260.8064077049569</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.2321514464775</v>
+        <v>356.8468329885808</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.4373636594032</v>
+        <v>322.7898720858256</v>
       </c>
       <c r="AD3" t="n">
-        <v>212851.016753756</v>
+        <v>260806.4077049569</v>
       </c>
       <c r="AE3" t="n">
-        <v>291232.1514464775</v>
+        <v>356846.8329885808</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.481497962452657e-06</v>
+        <v>4.474728047837209e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.904320987654321</v>
       </c>
       <c r="AH3" t="n">
-        <v>263437.3636594032</v>
+        <v>322789.8720858255</v>
       </c>
     </row>
   </sheetData>
@@ -7227,28 +7227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.1949369374813</v>
+        <v>259.282947234273</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.7027182145379</v>
+        <v>354.7623671622585</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.8630201955647</v>
+        <v>320.9043447524012</v>
       </c>
       <c r="AD2" t="n">
-        <v>213194.9369374813</v>
+        <v>259282.947234273</v>
       </c>
       <c r="AE2" t="n">
-        <v>291702.7182145379</v>
+        <v>354762.3671622585</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.477335882795092e-06</v>
+        <v>4.621916894871391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.290123456790123</v>
       </c>
       <c r="AH2" t="n">
-        <v>263863.0201955647</v>
+        <v>320904.3447524012</v>
       </c>
     </row>
     <row r="3">
@@ -7333,28 +7333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.402705668732</v>
+        <v>248.4096771751876</v>
       </c>
       <c r="AB3" t="n">
-        <v>289.2505083249731</v>
+        <v>339.8850793724375</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.6448457761609</v>
+        <v>307.4469244289384</v>
       </c>
       <c r="AD3" t="n">
-        <v>211402.705668732</v>
+        <v>248409.6771751876</v>
       </c>
       <c r="AE3" t="n">
-        <v>289250.5083249731</v>
+        <v>339885.0793724376</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.499528459696305e-06</v>
+        <v>4.663321149673015e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.209104938271606</v>
       </c>
       <c r="AH3" t="n">
-        <v>261644.8457761609</v>
+        <v>307446.9244289384</v>
       </c>
     </row>
   </sheetData>
@@ -12371,28 +12371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.4933484023603</v>
+        <v>247.3274616348232</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.0603326600271</v>
+        <v>338.4043443261318</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.6180833676545</v>
+        <v>306.1075086572268</v>
       </c>
       <c r="AD2" t="n">
-        <v>202493.3484023603</v>
+        <v>247327.4616348232</v>
       </c>
       <c r="AE2" t="n">
-        <v>277060.3326600271</v>
+        <v>338404.3443261317</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.486968182810335e-06</v>
+        <v>4.782532041296867e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.57175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>250618.0833676545</v>
+        <v>306107.5086572268</v>
       </c>
     </row>
   </sheetData>
@@ -12668,28 +12668,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.637731168711</v>
+        <v>262.8795394687372</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.940324699523</v>
+        <v>359.6833833279034</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.1733884475966</v>
+        <v>325.3557060418866</v>
       </c>
       <c r="AD2" t="n">
-        <v>212637.731168711</v>
+        <v>262879.5394687372</v>
       </c>
       <c r="AE2" t="n">
-        <v>290940.324699523</v>
+        <v>359683.3833279034</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.267814463125565e-06</v>
+        <v>4.677592572619403e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.26929012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>263173.3884475966</v>
+        <v>325355.7060418866</v>
       </c>
     </row>
   </sheetData>
@@ -12965,28 +12965,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>355.9792685498658</v>
+        <v>415.2700321703978</v>
       </c>
       <c r="AB2" t="n">
-        <v>487.0665399268739</v>
+        <v>568.1907784363682</v>
       </c>
       <c r="AC2" t="n">
-        <v>440.5815929584344</v>
+        <v>513.9634480031665</v>
       </c>
       <c r="AD2" t="n">
-        <v>355979.2685498658</v>
+        <v>415270.0321703978</v>
       </c>
       <c r="AE2" t="n">
-        <v>487066.5399268739</v>
+        <v>568190.7784363682</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.882423872156828e-06</v>
+        <v>3.307344485944814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>440581.5929584344</v>
+        <v>513963.4480031665</v>
       </c>
     </row>
     <row r="3">
@@ -13071,28 +13071,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>232.1684552424967</v>
+        <v>281.6342442388648</v>
       </c>
       <c r="AB3" t="n">
-        <v>317.6631230119982</v>
+        <v>385.3443977935715</v>
       </c>
       <c r="AC3" t="n">
-        <v>287.3458003948206</v>
+        <v>348.5676693024113</v>
       </c>
       <c r="AD3" t="n">
-        <v>232168.4552424967</v>
+        <v>281634.2442388648</v>
       </c>
       <c r="AE3" t="n">
-        <v>317663.1230119982</v>
+        <v>385344.3977935715</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.393646834112376e-06</v>
+        <v>4.205543063491961e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.92746913580247</v>
       </c>
       <c r="AH3" t="n">
-        <v>287345.8003948206</v>
+        <v>348567.6693024113</v>
       </c>
     </row>
     <row r="4">
@@ -13177,28 +13177,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>225.2961817782921</v>
+        <v>274.7619707746602</v>
       </c>
       <c r="AB4" t="n">
-        <v>308.2601752749706</v>
+        <v>375.9414500565391</v>
       </c>
       <c r="AC4" t="n">
-        <v>278.8402567926919</v>
+        <v>340.0621257002812</v>
       </c>
       <c r="AD4" t="n">
-        <v>225296.1817782921</v>
+        <v>274761.9707746602</v>
       </c>
       <c r="AE4" t="n">
-        <v>308260.1752749706</v>
+        <v>375941.450056539</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.437075028084979e-06</v>
+        <v>4.281844687156169e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.769290123456791</v>
       </c>
       <c r="AH4" t="n">
-        <v>278840.2567926919</v>
+        <v>340062.1257002812</v>
       </c>
     </row>
   </sheetData>
@@ -13474,28 +13474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>479.3486631070915</v>
+        <v>540.896193250136</v>
       </c>
       <c r="AB2" t="n">
-        <v>655.8659882336333</v>
+        <v>740.0780342607412</v>
       </c>
       <c r="AC2" t="n">
-        <v>593.2710588303104</v>
+        <v>669.4460253769402</v>
       </c>
       <c r="AD2" t="n">
-        <v>479348.6631070914</v>
+        <v>540896.193250136</v>
       </c>
       <c r="AE2" t="n">
-        <v>655865.9882336333</v>
+        <v>740078.0342607412</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.582300602284835e-06</v>
+        <v>2.705557694537513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.01697530864198</v>
       </c>
       <c r="AH2" t="n">
-        <v>593271.0588303104</v>
+        <v>669446.0253769401</v>
       </c>
     </row>
     <row r="3">
@@ -13580,28 +13580,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.8945586726749</v>
+        <v>347.1840925347527</v>
       </c>
       <c r="AB3" t="n">
-        <v>404.8559891225822</v>
+        <v>475.0325920872152</v>
       </c>
       <c r="AC3" t="n">
-        <v>366.2171017396716</v>
+        <v>429.6961482108409</v>
       </c>
       <c r="AD3" t="n">
-        <v>295894.5586726749</v>
+        <v>347184.0925347527</v>
       </c>
       <c r="AE3" t="n">
-        <v>404855.9891225822</v>
+        <v>475032.5920872152</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.138718693510997e-06</v>
+        <v>3.656970621969252e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.62962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>366217.1017396717</v>
+        <v>429696.1482108409</v>
       </c>
     </row>
     <row r="4">
@@ -13686,28 +13686,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>245.026569852951</v>
+        <v>296.2307628604603</v>
       </c>
       <c r="AB4" t="n">
-        <v>335.2561626819945</v>
+        <v>405.315998524592</v>
       </c>
       <c r="AC4" t="n">
-        <v>303.2597850507044</v>
+        <v>366.633208489981</v>
       </c>
       <c r="AD4" t="n">
-        <v>245026.569852951</v>
+        <v>296230.7628604603</v>
       </c>
       <c r="AE4" t="n">
-        <v>335256.1626819945</v>
+        <v>405315.998524592</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.349830891400431e-06</v>
+        <v>4.017948953511128e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.765432098765432</v>
       </c>
       <c r="AH4" t="n">
-        <v>303259.7850507044</v>
+        <v>366633.208489981</v>
       </c>
     </row>
     <row r="5">
@@ -13792,28 +13792,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>241.1317649965438</v>
+        <v>292.3359580040529</v>
       </c>
       <c r="AB5" t="n">
-        <v>329.9271188507974</v>
+        <v>399.9869546933922</v>
       </c>
       <c r="AC5" t="n">
-        <v>298.439337683395</v>
+        <v>361.8127611226708</v>
       </c>
       <c r="AD5" t="n">
-        <v>241131.7649965438</v>
+        <v>292335.9580040529</v>
       </c>
       <c r="AE5" t="n">
-        <v>329927.1188507974</v>
+        <v>399986.9546933922</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.372783671449093e-06</v>
+        <v>4.057195649481547e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.680555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>298439.337683395</v>
+        <v>361812.7611226708</v>
       </c>
     </row>
   </sheetData>
@@ -14089,28 +14089,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>231.2132265956768</v>
+        <v>280.0408869047143</v>
       </c>
       <c r="AB2" t="n">
-        <v>316.3561370357063</v>
+        <v>383.1642959950221</v>
       </c>
       <c r="AC2" t="n">
-        <v>286.1635513257393</v>
+        <v>346.5956333597235</v>
       </c>
       <c r="AD2" t="n">
-        <v>231213.2265956768</v>
+        <v>280040.8869047143</v>
       </c>
       <c r="AE2" t="n">
-        <v>316356.1370357063</v>
+        <v>383164.2959950222</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.007648724890915e-06</v>
+        <v>4.303315921293797e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.17901234567901</v>
       </c>
       <c r="AH2" t="n">
-        <v>286163.5513257392</v>
+        <v>346595.6333597235</v>
       </c>
     </row>
   </sheetData>
@@ -14386,28 +14386,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>231.1799221331275</v>
+        <v>278.0711420085274</v>
       </c>
       <c r="AB2" t="n">
-        <v>316.3105684007572</v>
+        <v>380.4692041290476</v>
       </c>
       <c r="AC2" t="n">
-        <v>286.1223316973537</v>
+        <v>344.1577572788523</v>
       </c>
       <c r="AD2" t="n">
-        <v>231179.9221331275</v>
+        <v>278071.1420085274</v>
       </c>
       <c r="AE2" t="n">
-        <v>316310.5684007572</v>
+        <v>380469.2041290476</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.370504817424003e-06</v>
+        <v>4.367495200242815e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.567901234567902</v>
       </c>
       <c r="AH2" t="n">
-        <v>286122.3316973537</v>
+        <v>344157.7572788523</v>
       </c>
     </row>
     <row r="3">
@@ -14492,28 +14492,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.7706258000509</v>
+        <v>252.283691208919</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.858645230791</v>
+        <v>345.1856762828233</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.8131885632499</v>
+        <v>312.241639809633</v>
       </c>
       <c r="AD3" t="n">
-        <v>214770.6258000509</v>
+        <v>252283.691208919</v>
       </c>
       <c r="AE3" t="n">
-        <v>293858.645230791</v>
+        <v>345185.6762828233</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.499603063563008e-06</v>
+        <v>4.605350009154186e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.074074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>265813.1885632499</v>
+        <v>312241.639809633</v>
       </c>
     </row>
   </sheetData>
@@ -14789,28 +14789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.5190238093458</v>
+        <v>360.7162684001884</v>
       </c>
       <c r="AB2" t="n">
-        <v>413.9198745733511</v>
+        <v>493.5479121037696</v>
       </c>
       <c r="AC2" t="n">
-        <v>374.4159426842623</v>
+        <v>446.4443920714302</v>
       </c>
       <c r="AD2" t="n">
-        <v>302519.0238093458</v>
+        <v>360716.2684001884</v>
       </c>
       <c r="AE2" t="n">
-        <v>413919.8745733511</v>
+        <v>493547.9121037696</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.054698813075692e-06</v>
+        <v>3.670569481173246e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.62885802469136</v>
       </c>
       <c r="AH2" t="n">
-        <v>374415.9426842624</v>
+        <v>446444.3920714302</v>
       </c>
     </row>
     <row r="3">
@@ -14895,28 +14895,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.8004614343748</v>
+        <v>265.2839417843177</v>
       </c>
       <c r="AB3" t="n">
-        <v>296.6359558956996</v>
+        <v>362.9731926508244</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.3254365962804</v>
+        <v>328.3315405803044</v>
       </c>
       <c r="AD3" t="n">
-        <v>216800.4614343748</v>
+        <v>265283.9417843177</v>
       </c>
       <c r="AE3" t="n">
-        <v>296635.9558956996</v>
+        <v>362973.1926508244</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.465276334701251e-06</v>
+        <v>4.404036260315738e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.858024691358025</v>
       </c>
       <c r="AH3" t="n">
-        <v>268325.4365962804</v>
+        <v>328331.5405803044</v>
       </c>
     </row>
   </sheetData>
